--- a/runs/run999/NotionalETEOutput999.xlsx
+++ b/runs/run999/NotionalETEOutput999.xlsx
@@ -49,13 +49,13 @@
     <t>tUp</t>
   </si>
   <si>
-    <t>Missile_HIGHWIND1_State_Update</t>
+    <t>Missile_ANGERMAX2_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_HIGHWIND1_426.MISSILE_HIGHWIND1_426</t>
+    <t>MISSILE_ANGERMAX2_119.MISSILE_ANGERMAX2_119</t>
   </si>
   <si>
-    <t>MISSILE_HIGHWIND1</t>
+    <t>MISSILE_ANGERMAX2</t>
   </si>
 </sst>
 </file>
@@ -480,10 +480,10 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>-1516.955123422915</v>
+        <v>-1469.183890095831</v>
       </c>
       <c r="J2">
-        <v>1980.319772687002</v>
+        <v>1947.758040797004</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -515,13 +515,13 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>-1448.123756567087</v>
+        <v>-1528.941915440748</v>
       </c>
       <c r="J3">
-        <v>1866.345580367242</v>
+        <v>1980.179513113865</v>
       </c>
       <c r="K3">
-        <v>302.9543103057537</v>
+        <v>292.3863145747705</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -550,13 +550,13 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>-1492.869418162316</v>
+        <v>-1471.465502466652</v>
       </c>
       <c r="J4">
-        <v>1847.554552075569</v>
+        <v>1871.543492167334</v>
       </c>
       <c r="K4">
-        <v>591.9643556113839</v>
+        <v>594.0099859897084</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -585,13 +585,13 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>-1451.905905890298</v>
+        <v>-1379.934922180628</v>
       </c>
       <c r="J5">
-        <v>1897.796055200682</v>
+        <v>1873.727921981857</v>
       </c>
       <c r="K5">
-        <v>900.4574522987247</v>
+        <v>869.709396933353</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -620,13 +620,13 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>-1414.421434565956</v>
+        <v>-1335.941825237846</v>
       </c>
       <c r="J6">
-        <v>1744.571370954779</v>
+        <v>1852.935779270771</v>
       </c>
       <c r="K6">
-        <v>1078.175643393085</v>
+        <v>1119.428297490983</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -655,13 +655,13 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>-1378.678874541093</v>
+        <v>-1302.593214458626</v>
       </c>
       <c r="J7">
-        <v>1759.549687643207</v>
+        <v>1762.0817258735</v>
       </c>
       <c r="K7">
-        <v>1335.575105823131</v>
+        <v>1367.865773141223</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -690,13 +690,13 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>-1253.378558086165</v>
+        <v>-1278.146505390389</v>
       </c>
       <c r="J8">
-        <v>1779.318333837093</v>
+        <v>1774.68170935666</v>
       </c>
       <c r="K8">
-        <v>1560.485334119671</v>
+        <v>1592.508998220649</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -719,19 +719,19 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>-97.49640114731152</v>
+        <v>-98.92875135129484</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>-1261.399629023183</v>
+        <v>-1277.629919235343</v>
       </c>
       <c r="J9">
-        <v>1696.240269737792</v>
+        <v>1688.441655899669</v>
       </c>
       <c r="K9">
-        <v>1724.048392995792</v>
+        <v>1823.233642593513</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -751,22 +751,22 @@
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>216.2577720454175</v>
+        <v>213.4803737731586</v>
       </c>
       <c r="G10">
-        <v>-85.77019934419674</v>
+        <v>-86.52129626379762</v>
       </c>
       <c r="H10">
-        <v>820.0116806093446</v>
+        <v>861.3709686087069</v>
       </c>
       <c r="I10">
-        <v>-1181.075196926795</v>
+        <v>-1183.994742106131</v>
       </c>
       <c r="J10">
-        <v>1631.881970650026</v>
+        <v>1596.60405676295</v>
       </c>
       <c r="K10">
-        <v>2005.828658353931</v>
+        <v>1968.744285311359</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -786,22 +786,22 @@
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>163.1540585126729</v>
+        <v>163.9090479445819</v>
       </c>
       <c r="G11">
-        <v>-67.77383847090614</v>
+        <v>-66.68512271548471</v>
       </c>
       <c r="H11">
-        <v>1082.842032941751</v>
+        <v>1022.803621164022</v>
       </c>
       <c r="I11">
-        <v>-1157.037981153112</v>
+        <v>-1174.985450855193</v>
       </c>
       <c r="J11">
-        <v>1574.740031754655</v>
+        <v>1502.143314133397</v>
       </c>
       <c r="K11">
-        <v>2250.117233329608</v>
+        <v>2195.517806847297</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -821,22 +821,22 @@
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>141.4763418415084</v>
+        <v>139.2476031283159</v>
       </c>
       <c r="G12">
-        <v>-51.32260042665269</v>
+        <v>-48.55383769658067</v>
       </c>
       <c r="H12">
-        <v>1132.445193813894</v>
+        <v>1225.181663161467</v>
       </c>
       <c r="I12">
-        <v>-1212.53411926764</v>
+        <v>-1160.075087014083</v>
       </c>
       <c r="J12">
-        <v>1460.137699918199</v>
+        <v>1453.642462474023</v>
       </c>
       <c r="K12">
-        <v>2314.486271964408</v>
+        <v>2415.390788468216</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -856,22 +856,22 @@
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>124.3296894304405</v>
+        <v>124.8926389187369</v>
       </c>
       <c r="G13">
-        <v>-34.55758768266618</v>
+        <v>-34.51233655522457</v>
       </c>
       <c r="H13">
-        <v>1278.120321825438</v>
+        <v>1243.547623159006</v>
       </c>
       <c r="I13">
-        <v>-1168.499713171645</v>
+        <v>-1095.892060177295</v>
       </c>
       <c r="J13">
-        <v>1526.305218374515</v>
+        <v>1458.660362679444</v>
       </c>
       <c r="K13">
-        <v>2510.553246081474</v>
+        <v>2633.514753663495</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -891,22 +891,22 @@
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>104.2930989332552</v>
+        <v>114.8651554758061</v>
       </c>
       <c r="G14">
-        <v>-16.58781692019552</v>
+        <v>-17.27421989381999</v>
       </c>
       <c r="H14">
-        <v>1273.373259232734</v>
+        <v>1291.327319346248</v>
       </c>
       <c r="I14">
-        <v>-1096.229241009684</v>
+        <v>-1145.431442627619</v>
       </c>
       <c r="J14">
-        <v>1410.522948612022</v>
+        <v>1351.175739644732</v>
       </c>
       <c r="K14">
-        <v>2762.779701689705</v>
+        <v>2527.843044042995</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -926,22 +926,22 @@
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>95.26716868072208</v>
+        <v>97.78113374443856</v>
       </c>
       <c r="G15">
-        <v>-0.9341849396281554</v>
+        <v>-0.9383262751044688</v>
       </c>
       <c r="H15">
-        <v>1368.817616184527</v>
+        <v>1344.537403550502</v>
       </c>
       <c r="I15">
-        <v>-1069.802961283107</v>
+        <v>-1012.760337914398</v>
       </c>
       <c r="J15">
-        <v>1417.575291739851</v>
+        <v>1363.066578520297</v>
       </c>
       <c r="K15">
-        <v>2865.844964868927</v>
+        <v>2753.830352824324</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -961,22 +961,22 @@
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>89.95850039798621</v>
+        <v>88.4518475179173</v>
       </c>
       <c r="G16">
-        <v>16.13701664626308</v>
+        <v>16.08022271786344</v>
       </c>
       <c r="H16">
-        <v>1375.434814297566</v>
+        <v>1356.306654385317</v>
       </c>
       <c r="I16">
-        <v>-968.5866645614495</v>
+        <v>-992.497082030099</v>
       </c>
       <c r="J16">
-        <v>1357.32093210115</v>
+        <v>1370.195027094137</v>
       </c>
       <c r="K16">
-        <v>2805.966615730293</v>
+        <v>2995.262024975073</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -996,22 +996,22 @@
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>86.58603103855428</v>
+        <v>85.41070537315254</v>
       </c>
       <c r="G17">
-        <v>33.12627322010994</v>
+        <v>32.26071952988478</v>
       </c>
       <c r="H17">
-        <v>1430.081290196308</v>
+        <v>1510.90877784278</v>
       </c>
       <c r="I17">
-        <v>-983.7174138641205</v>
+        <v>-979.4762015237072</v>
       </c>
       <c r="J17">
-        <v>1302.403757378156</v>
+        <v>1292.746022774676</v>
       </c>
       <c r="K17">
-        <v>2965.448603902652</v>
+        <v>2944.436642318502</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1031,22 +1031,22 @@
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>84.47381402783459</v>
+        <v>81.17770420971624</v>
       </c>
       <c r="G18">
-        <v>50.56295355762079</v>
+        <v>49.19669751610932</v>
       </c>
       <c r="H18">
-        <v>1557.375129429582</v>
+        <v>1540.817043727345</v>
       </c>
       <c r="I18">
-        <v>-886.4751036345154</v>
+        <v>-952.6538583293966</v>
       </c>
       <c r="J18">
-        <v>1237.223738890975</v>
+        <v>1200.167880219494</v>
       </c>
       <c r="K18">
-        <v>3189.663374096979</v>
+        <v>2901.751984801354</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1066,22 +1066,22 @@
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>81.12725113322212</v>
+        <v>80.22021084467168</v>
       </c>
       <c r="G19">
-        <v>62.22108597076873</v>
+        <v>62.89533372586965</v>
       </c>
       <c r="H19">
-        <v>1556.70064309934</v>
+        <v>1560.171111618207</v>
       </c>
       <c r="I19">
-        <v>-850.4069278532875</v>
+        <v>-848.3936802007655</v>
       </c>
       <c r="J19">
-        <v>1135.992037227361</v>
+        <v>1170.581125882302</v>
       </c>
       <c r="K19">
-        <v>3147.543367084911</v>
+        <v>3220.030487680229</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1101,22 +1101,22 @@
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>74.26095021151255</v>
+        <v>72.42124939915071</v>
       </c>
       <c r="G20">
-        <v>81.82476907829923</v>
+        <v>78.32034039188571</v>
       </c>
       <c r="H20">
-        <v>1577.61537953041</v>
+        <v>1585.43654458044</v>
       </c>
       <c r="I20">
-        <v>-872.3590040552485</v>
+        <v>-847.0078253063972</v>
       </c>
       <c r="J20">
-        <v>1070.392761114663</v>
+        <v>1158.071318804595</v>
       </c>
       <c r="K20">
-        <v>3217.714880844347</v>
+        <v>3097.07937699893</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1136,22 +1136,22 @@
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>67.57793939897212</v>
+        <v>68.91155311872296</v>
       </c>
       <c r="G21">
-        <v>100.9840686410935</v>
+        <v>95.91972070765239</v>
       </c>
       <c r="H21">
-        <v>1536.836078220216</v>
+        <v>1634.368864364827</v>
       </c>
       <c r="I21">
-        <v>-816.6250206168193</v>
+        <v>-828.2668160582363</v>
       </c>
       <c r="J21">
-        <v>1075.671962866761</v>
+        <v>1082.337672329774</v>
       </c>
       <c r="K21">
-        <v>3057.48419815342</v>
+        <v>3070.911597393187</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1171,22 +1171,22 @@
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>70.99094360271758</v>
+        <v>64.80860565671088</v>
       </c>
       <c r="G22">
-        <v>117.6709282275627</v>
+        <v>116.1553875398803</v>
       </c>
       <c r="H22">
-        <v>1636.331451481589</v>
+        <v>1617.721119386072</v>
       </c>
       <c r="I22">
-        <v>-729.4121917527474</v>
+        <v>-723.4664095105119</v>
       </c>
       <c r="J22">
-        <v>1020.734133247566</v>
+        <v>1023.815361678261</v>
       </c>
       <c r="K22">
-        <v>3189.746377018395</v>
+        <v>3330.80450760645</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1206,22 +1206,22 @@
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>63.37717898480871</v>
+        <v>65.23829026093377</v>
       </c>
       <c r="G23">
-        <v>127.4563938867027</v>
+        <v>133.8514439207794</v>
       </c>
       <c r="H23">
-        <v>1629.696720567874</v>
+        <v>1703.838404160064</v>
       </c>
       <c r="I23">
-        <v>-696.3845183159232</v>
+        <v>-708.435095979673</v>
       </c>
       <c r="J23">
-        <v>976.5258782192395</v>
+        <v>942.8223033548289</v>
       </c>
       <c r="K23">
-        <v>3270.230162362978</v>
+        <v>3240.567701241184</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1241,22 +1241,22 @@
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>65.86274854540052</v>
+        <v>65.85746467628172</v>
       </c>
       <c r="G24">
-        <v>147.1572583194175</v>
+        <v>152.4727854381056</v>
       </c>
       <c r="H24">
-        <v>1580.069187483296</v>
+        <v>1656.479613917347</v>
       </c>
       <c r="I24">
-        <v>-678.1752797595577</v>
+        <v>-628.5007614989655</v>
       </c>
       <c r="J24">
-        <v>934.310620095388</v>
+        <v>883.5978331854266</v>
       </c>
       <c r="K24">
-        <v>3147.658329255963</v>
+        <v>3088.865337487067</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1276,22 +1276,22 @@
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>60.56383336113223</v>
+        <v>59.80990034766386</v>
       </c>
       <c r="G25">
-        <v>164.143113432582</v>
+        <v>164.3927222810175</v>
       </c>
       <c r="H25">
-        <v>1599.479754173792</v>
+        <v>1684.810503477043</v>
       </c>
       <c r="I25">
-        <v>-579.0856774789095</v>
+        <v>-592.5982857221094</v>
       </c>
       <c r="J25">
-        <v>863.1653104319317</v>
+        <v>878.8594281021691</v>
       </c>
       <c r="K25">
-        <v>3078.249776701755</v>
+        <v>3244.244095761478</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1311,22 +1311,22 @@
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>61.65520699558528</v>
+        <v>57.6538606529483</v>
       </c>
       <c r="G26">
-        <v>177.6466364242402</v>
+        <v>177.2020520403803</v>
       </c>
       <c r="H26">
-        <v>1738.742071503598</v>
+        <v>1638.665339253438</v>
       </c>
       <c r="I26">
-        <v>-527.190306022819</v>
+        <v>-546.3762007818891</v>
       </c>
       <c r="J26">
-        <v>866.480105401903</v>
+        <v>840.9043180629523</v>
       </c>
       <c r="K26">
-        <v>3095.31957135393</v>
+        <v>3261.26793538418</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1346,22 +1346,22 @@
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>59.45277267293356</v>
+        <v>60.1237880185814</v>
       </c>
       <c r="G27">
-        <v>188.4725110810027</v>
+        <v>203.4501171739091</v>
       </c>
       <c r="H27">
-        <v>1729.913896612014</v>
+        <v>1755.01800175554</v>
       </c>
       <c r="I27">
-        <v>-478.1011865157926</v>
+        <v>-509.8670086027407</v>
       </c>
       <c r="J27">
-        <v>759.931171432764</v>
+        <v>789.4093295317563</v>
       </c>
       <c r="K27">
-        <v>3145.324315014153</v>
+        <v>2920.632978497024</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1381,22 +1381,22 @@
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>55.28179366755994</v>
+        <v>55.29214751342602</v>
       </c>
       <c r="G28">
-        <v>209.9824523273869</v>
+        <v>217.6895046161794</v>
       </c>
       <c r="H28">
-        <v>1762.15911166434</v>
+        <v>1739.670582078747</v>
       </c>
       <c r="I28">
-        <v>-455.7830188158588</v>
+        <v>-431.9665144953423</v>
       </c>
       <c r="J28">
-        <v>754.7291116936631</v>
+        <v>753.2479897757532</v>
       </c>
       <c r="K28">
-        <v>3091.707462825158</v>
+        <v>2930.994150247454</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1416,22 +1416,22 @@
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>55.14423934993127</v>
+        <v>52.80572637346987</v>
       </c>
       <c r="G29">
-        <v>232.4198124668393</v>
+        <v>231.52585794897</v>
       </c>
       <c r="H29">
-        <v>1786.767845756546</v>
+        <v>1763.1657932357</v>
       </c>
       <c r="I29">
-        <v>-394.1590939862766</v>
+        <v>-389.4202974051474</v>
       </c>
       <c r="J29">
-        <v>682.9838908953473</v>
+        <v>695.2094938550127</v>
       </c>
       <c r="K29">
-        <v>2947.086653223936</v>
+        <v>3005.541076250349</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1451,22 +1451,22 @@
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>51.35486694329722</v>
+        <v>55.49851543027521</v>
       </c>
       <c r="G30">
-        <v>243.9358916632878</v>
+        <v>254.5142444831501</v>
       </c>
       <c r="H30">
-        <v>1726.306074204253</v>
+        <v>1707.667355876128</v>
       </c>
       <c r="I30">
-        <v>-316.8480100499199</v>
+        <v>-335.6882457448009</v>
       </c>
       <c r="J30">
-        <v>650.1348086058314</v>
+        <v>646.250075338947</v>
       </c>
       <c r="K30">
-        <v>2724.11013892956</v>
+        <v>2765.949918637367</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1486,22 +1486,22 @@
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>51.4843511963111</v>
+        <v>53.51226499980842</v>
       </c>
       <c r="G31">
-        <v>254.3389153909239</v>
+        <v>259.971086487969</v>
       </c>
       <c r="H31">
-        <v>1700.712583212105</v>
+        <v>1713.317594403003</v>
       </c>
       <c r="I31">
-        <v>-269.401540738955</v>
+        <v>-268.6804703084563</v>
       </c>
       <c r="J31">
-        <v>563.890125480757</v>
+        <v>615.1178602312674</v>
       </c>
       <c r="K31">
-        <v>2570.930252803563</v>
+        <v>2689.356128912033</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1521,22 +1521,22 @@
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>49.47441416698666</v>
+        <v>49.33484421400772</v>
       </c>
       <c r="G32">
-        <v>278.6445280224903</v>
+        <v>289.3197961524567</v>
       </c>
       <c r="H32">
-        <v>1831.680620827104</v>
+        <v>1799.733279776088</v>
       </c>
       <c r="I32">
-        <v>-199.1564019013959</v>
+        <v>-208.4811911668669</v>
       </c>
       <c r="J32">
-        <v>528.101134681253</v>
+        <v>518.0351870058772</v>
       </c>
       <c r="K32">
-        <v>2428.822246402283</v>
+        <v>2527.765406204946</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1556,22 +1556,22 @@
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>52.35503969390913</v>
+        <v>51.87463187959564</v>
       </c>
       <c r="G33">
-        <v>287.5846860652513</v>
+        <v>282.6470672116629</v>
       </c>
       <c r="H33">
-        <v>1872.365534148238</v>
+        <v>1834.777651820146</v>
       </c>
       <c r="I33">
-        <v>-142.8515982831563</v>
+        <v>-146.9436002805558</v>
       </c>
       <c r="J33">
-        <v>467.4431732951812</v>
+        <v>480.2128620188391</v>
       </c>
       <c r="K33">
-        <v>2272.015638073476</v>
+        <v>2457.067768371463</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1591,22 +1591,22 @@
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>48.68284133101656</v>
+        <v>49.8884883679711</v>
       </c>
       <c r="G34">
-        <v>319.4974714835071</v>
+        <v>316.3585544913001</v>
       </c>
       <c r="H34">
-        <v>1858.289699973333</v>
+        <v>1896.373931207744</v>
       </c>
       <c r="I34">
-        <v>-80.87543530176849</v>
+        <v>-81.40691599428385</v>
       </c>
       <c r="J34">
-        <v>426.680803587629</v>
+        <v>427.0827564852324</v>
       </c>
       <c r="K34">
-        <v>2309.76113851588</v>
+        <v>2168.35023126238</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1626,22 +1626,22 @@
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>49.29505482788277</v>
+        <v>48.01671901508644</v>
       </c>
       <c r="G35">
-        <v>323.3973016778786</v>
+        <v>323.0259962921265</v>
       </c>
       <c r="H35">
-        <v>1836.557682841003</v>
+        <v>1762.976179839805</v>
       </c>
       <c r="I35">
-        <v>-18.27402411023371</v>
+        <v>-18.92289130601776</v>
       </c>
       <c r="J35">
-        <v>396.7227589833174</v>
+        <v>393.8792627686582</v>
       </c>
       <c r="K35">
-        <v>1946.456196447346</v>
+        <v>2064.900576046055</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1661,22 +1661,22 @@
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>47.70560776552084</v>
+        <v>49.66839250544952</v>
       </c>
       <c r="G36">
-        <v>350.4641875380824</v>
+        <v>342.7129015694726</v>
       </c>
       <c r="H36">
-        <v>1860.693823029762</v>
+        <v>1765.453317875572</v>
       </c>
       <c r="I36">
-        <v>49.58400602375823</v>
+        <v>47.51702420784767</v>
       </c>
       <c r="J36">
-        <v>331.4157783640666</v>
+        <v>358.8962083124445</v>
       </c>
       <c r="K36">
-        <v>1877.931060768985</v>
+        <v>1920.843414383688</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1696,22 +1696,22 @@
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>48.1979537604013</v>
+        <v>46.1671121268244</v>
       </c>
       <c r="G37">
-        <v>354.727253562882</v>
+        <v>369.0510909121056</v>
       </c>
       <c r="H37">
-        <v>1866.502986230877</v>
+        <v>1806.965913189744</v>
       </c>
       <c r="I37">
-        <v>113.1159299918222</v>
+        <v>117.2165402133582</v>
       </c>
       <c r="J37">
-        <v>304.7596563791221</v>
+        <v>303.4036810680579</v>
       </c>
       <c r="K37">
-        <v>1563.167284796746</v>
+        <v>1649.971019771804</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1731,22 +1731,22 @@
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>44.64053129419098</v>
+        <v>47.14156065321311</v>
       </c>
       <c r="G38">
-        <v>378.1822186760002</v>
+        <v>363.7758872647771</v>
       </c>
       <c r="H38">
-        <v>1866.039716229453</v>
+        <v>1830.935714389635</v>
       </c>
       <c r="I38">
-        <v>189.3218433441176</v>
+        <v>183.3326539298299</v>
       </c>
       <c r="J38">
-        <v>260.6093000088867</v>
+        <v>258.6881425331628</v>
       </c>
       <c r="K38">
-        <v>1333.067396753015</v>
+        <v>1439.643412657764</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1766,22 +1766,22 @@
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>47.03825970210293</v>
+        <v>45.93376342040588</v>
       </c>
       <c r="G39">
-        <v>411.0864545829778</v>
+        <v>387.7727160953104</v>
       </c>
       <c r="H39">
-        <v>1791.735682847489</v>
+        <v>1866.680121672929</v>
       </c>
       <c r="I39">
-        <v>243.1643385438555</v>
+        <v>264.4727367482766</v>
       </c>
       <c r="J39">
-        <v>209.2930612414137</v>
+        <v>200.7840484957941</v>
       </c>
       <c r="K39">
-        <v>1192.913444234414</v>
+        <v>1166.637790673311</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1801,22 +1801,22 @@
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>45.60393450443766</v>
+        <v>45.88933092600679</v>
       </c>
       <c r="G40">
-        <v>421.4076314364479</v>
+        <v>415.7457843222086</v>
       </c>
       <c r="H40">
-        <v>1911.155799286812</v>
+        <v>1943.214094894464</v>
       </c>
       <c r="I40">
-        <v>323.872769269096</v>
+        <v>342.0100762161415</v>
       </c>
       <c r="J40">
-        <v>150.8815273985194</v>
+        <v>144.8370244488865</v>
       </c>
       <c r="K40">
-        <v>888.2662321101931</v>
+        <v>880.2341192680796</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1836,22 +1836,22 @@
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>41.96566129767489</v>
+        <v>45.12819474071683</v>
       </c>
       <c r="G41">
-        <v>407.2508383746322</v>
+        <v>413.2170006745339</v>
       </c>
       <c r="H41">
-        <v>1867.21483569725</v>
+        <v>1938.045061490284</v>
       </c>
       <c r="I41">
-        <v>416.9631776446074</v>
+        <v>411.2503212868486</v>
       </c>
       <c r="J41">
-        <v>101.3222587827042</v>
+        <v>100.4505198502667</v>
       </c>
       <c r="K41">
-        <v>606.4765227363959</v>
+        <v>647.6611365812654</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1871,22 +1871,22 @@
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>44.95819924261261</v>
+        <v>44.86149172227627</v>
       </c>
       <c r="G42">
-        <v>454.1691506907666</v>
+        <v>443.2729514334729</v>
       </c>
       <c r="H42">
-        <v>1875.161999422466</v>
+        <v>1982.876131506466</v>
       </c>
       <c r="I42">
-        <v>489.0585970686894</v>
+        <v>485.1525870060974</v>
       </c>
       <c r="J42">
-        <v>56.51233406182274</v>
+        <v>54.15126203973922</v>
       </c>
       <c r="K42">
-        <v>336.5578389034152</v>
+        <v>321.3064144402916</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1906,22 +1906,22 @@
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>40.61347712528309</v>
+        <v>41.78710659606703</v>
       </c>
       <c r="G43">
-        <v>462.8743874534</v>
+        <v>470.5352846806935</v>
       </c>
       <c r="H43">
-        <v>1861.175876061772</v>
+        <v>1926.795468339127</v>
       </c>
       <c r="I43">
-        <v>547.2500328988102</v>
+        <v>580.402853786275</v>
       </c>
       <c r="J43">
-        <v>5.317597517077878</v>
+        <v>5.103846221604624</v>
       </c>
       <c r="K43">
-        <v>33.15474213726607</v>
+        <v>34.68642514287252</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1941,22 +1941,22 @@
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>40.34870116172948</v>
+        <v>41.27224181361201</v>
       </c>
       <c r="G44">
-        <v>473.2075917020791</v>
+        <v>498.6735833106781</v>
       </c>
       <c r="H44">
-        <v>1839.198190380706</v>
+        <v>1971.335177961882</v>
       </c>
       <c r="I44">
-        <v>612.2439641396394</v>
+        <v>628.2422286283409</v>
       </c>
       <c r="J44">
-        <v>-44.97623324472868</v>
+        <v>-45.41148873220813</v>
       </c>
       <c r="K44">
-        <v>-275.4539124315639</v>
+        <v>-275.2634789614406</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1976,22 +1976,22 @@
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>41.99028846711037</v>
+        <v>39.73024906557374</v>
       </c>
       <c r="G45">
-        <v>511.1626438296265</v>
+        <v>499.1123681934756</v>
       </c>
       <c r="H45">
-        <v>1980.776036403975</v>
+        <v>1826.415901907033</v>
       </c>
       <c r="I45">
-        <v>729.7922251326667</v>
+        <v>733.8281912819837</v>
       </c>
       <c r="J45">
-        <v>-87.64344605223508</v>
+        <v>-91.62242674689979</v>
       </c>
       <c r="K45">
-        <v>-642.7052246202741</v>
+        <v>-592.1930610426919</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2011,22 +2011,22 @@
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>40.01412980709876</v>
+        <v>41.89746960533572</v>
       </c>
       <c r="G46">
-        <v>512.7310998867508</v>
+        <v>532.0296068927545</v>
       </c>
       <c r="H46">
-        <v>1995.180977787229</v>
+        <v>1909.409190562116</v>
       </c>
       <c r="I46">
-        <v>835.0102342703844</v>
+        <v>842.5906678399032</v>
       </c>
       <c r="J46">
-        <v>-138.1784200735915</v>
+        <v>-134.6793838191485</v>
       </c>
       <c r="K46">
-        <v>-923.5648419433671</v>
+        <v>-916.2747831001187</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2046,22 +2046,22 @@
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>39.75536213392544</v>
+        <v>41.87145643739731</v>
       </c>
       <c r="G47">
-        <v>538.9004214576402</v>
+        <v>532.3109864623905</v>
       </c>
       <c r="H47">
-        <v>1846.494863135184</v>
+        <v>1998.591706399507</v>
       </c>
       <c r="I47">
-        <v>871.4472056612524</v>
+        <v>916.8000399060984</v>
       </c>
       <c r="J47">
-        <v>-182.731393023216</v>
+        <v>-186.5799262161511</v>
       </c>
       <c r="K47">
-        <v>-1272.155847759144</v>
+        <v>-1377.02847545206</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2081,22 +2081,22 @@
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>41.13506383108203</v>
+        <v>38.38324203327002</v>
       </c>
       <c r="G48">
-        <v>534.8165356488612</v>
+        <v>554.4337388197762</v>
       </c>
       <c r="H48">
-        <v>2023.723938728378</v>
+        <v>1887.953220025889</v>
       </c>
       <c r="I48">
-        <v>1023.055716913307</v>
+        <v>991.0109305038472</v>
       </c>
       <c r="J48">
-        <v>-245.3010864903982</v>
+        <v>-235.0864715824293</v>
       </c>
       <c r="K48">
-        <v>-1735.873971164451</v>
+        <v>-1633.285848727242</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2116,22 +2116,22 @@
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>38.1395121991757</v>
+        <v>39.56900505000539</v>
       </c>
       <c r="G49">
-        <v>567.026863196818</v>
+        <v>577.7097075720666</v>
       </c>
       <c r="H49">
-        <v>1997.631990676866</v>
+        <v>2021.264653812331</v>
       </c>
       <c r="I49">
-        <v>1048.880564698079</v>
+        <v>1099.912243742591</v>
       </c>
       <c r="J49">
-        <v>-300.7275633373174</v>
+        <v>-297.5096793237304</v>
       </c>
       <c r="K49">
-        <v>-2117.810850721363</v>
+        <v>-2036.724056602703</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2151,22 +2151,22 @@
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>38.13041907625652</v>
+        <v>36.59111546505037</v>
       </c>
       <c r="G50">
-        <v>576.9883823176242</v>
+        <v>587.466797655323</v>
       </c>
       <c r="H50">
-        <v>1895.793818254345</v>
+        <v>1876.493584885633</v>
       </c>
       <c r="I50">
-        <v>1186.769779238195</v>
+        <v>1174.933021272629</v>
       </c>
       <c r="J50">
-        <v>-345.5484231562426</v>
+        <v>-322.8839955881429</v>
       </c>
       <c r="K50">
-        <v>-2430.949507818393</v>
+        <v>-2408.51286312584</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2186,22 +2186,22 @@
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>36.10810762466456</v>
+        <v>38.86324734580963</v>
       </c>
       <c r="G51">
-        <v>599.2875126751369</v>
+        <v>589.809153509632</v>
       </c>
       <c r="H51">
-        <v>2041.325264600296</v>
+        <v>1892.64988296201</v>
       </c>
       <c r="I51">
-        <v>1253.099138277464</v>
+        <v>1209.258429404257</v>
       </c>
       <c r="J51">
-        <v>-384.5510084597211</v>
+        <v>-381.0597814711721</v>
       </c>
       <c r="K51">
-        <v>-2920.773608118938</v>
+        <v>-2824.179449221042</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2221,22 +2221,22 @@
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>39.1641612087944</v>
+        <v>37.60937928253448</v>
       </c>
       <c r="G52">
-        <v>584.5104173648089</v>
+        <v>596.9351489901667</v>
       </c>
       <c r="H52">
-        <v>1988.1719132619</v>
+        <v>1965.11116837976</v>
       </c>
       <c r="I52">
-        <v>1301.021740096729</v>
+        <v>1409.553053973571</v>
       </c>
       <c r="J52">
-        <v>-412.3503300163614</v>
+        <v>-433.9172567943085</v>
       </c>
       <c r="K52">
-        <v>-3347.573718383152</v>
+        <v>-3234.836708850295</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2256,22 +2256,22 @@
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>35.71671125150063</v>
+        <v>38.28102237892064</v>
       </c>
       <c r="G53">
-        <v>654.0189223300703</v>
+        <v>652.9608789292819</v>
       </c>
       <c r="H53">
-        <v>1985.721436699893</v>
+        <v>2032.337606939122</v>
       </c>
       <c r="I53">
-        <v>1466.108444992845</v>
+        <v>1507.733572881123</v>
       </c>
       <c r="J53">
-        <v>-499.5936297926584</v>
+        <v>-472.3881721098255</v>
       </c>
       <c r="K53">
-        <v>-3651.112811754</v>
+        <v>-3679.087520134393</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2291,22 +2291,22 @@
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>35.48815041002428</v>
+        <v>35.95195143441163</v>
       </c>
       <c r="G54">
-        <v>628.196903187632</v>
+        <v>654.3044205933988</v>
       </c>
       <c r="H54">
-        <v>1884.474269483196</v>
+        <v>1985.513323562921</v>
       </c>
       <c r="I54">
-        <v>1530.145072148196</v>
+        <v>1578.951440734519</v>
       </c>
       <c r="J54">
-        <v>-525.9853236435212</v>
+        <v>-546.8373915579526</v>
       </c>
       <c r="K54">
-        <v>-4086.171647274075</v>
+        <v>-4262.238406104606</v>
       </c>
     </row>
   </sheetData>
